--- a/Отчет о тестировании.xlsx
+++ b/Отчет о тестировании.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4z\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1234\Downloads\Треугольник\Треугольник\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2136" documentId="13_ncr:1_{ABF1C6F6-5FC6-4548-AAAA-6B20E9F5AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9ADF2B6-8FAB-4B29-A017-D597CC3EEEB2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>1. Общая информация</t>
   </si>
@@ -258,31 +257,16 @@
     <t>Ошибки в требованиях</t>
   </si>
   <si>
-    <t>https://1drv.ms/w/c/ac77fd8478382e05/ETD_npj2lg9KjLMdjNZ1XcsBZyTNUmcIOiIzKl_dQnHTIg?e=uwhDv1</t>
-  </si>
-  <si>
     <t>Требования</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/w/c/ac77fd8478382e05/ERElmIAjpJ5BognyEmTGQhoBwFGgoB4K_Z3i-f6sRMJBTQ?e=pzhEw6</t>
   </si>
   <si>
     <t>Чек-лист</t>
   </si>
   <si>
-    <t>https://1drv.ms/x/c/ac77fd8478382e05/EVRAlfYlgwtHuXxJs5pQ7aoBfJQNcFP3dDQ2LkGVb8ZtwA?e=5Xfhkm</t>
-  </si>
-  <si>
     <t>Тесты</t>
   </si>
   <si>
-    <t>https://1drv.ms/x/c/ac77fd8478382e05/ERiGfPF-b4tDiAPl7Ne8hfoBwzqUr6YIAuCH5cspyFMnRw?e=AgPHwi</t>
-  </si>
-  <si>
     <t>Баг-репорты</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/x/c/ac77fd8478382e05/EaN8BDrxrBVEjTKcPKzdjt8BdKzCCWUK9MZLKULTuXoasw?e=kfsKO6</t>
   </si>
   <si>
     <t>Дата:</t>
@@ -294,8 +278,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,7 +362,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -506,12 +490,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -547,9 +558,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,19 +579,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,21 +627,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -672,13 +693,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -697,6 +711,13 @@
       <font>
         <sz val="14"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -771,13 +792,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -796,6 +810,13 @@
       <font>
         <sz val="14"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -871,6 +892,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -896,7 +918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1065,7 +1087,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1079,6 +1101,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1203,7 +1226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="907579399"/>
@@ -1262,7 +1285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="777652231"/>
@@ -1303,7 +1326,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1354,6 +1377,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1379,7 +1403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1527,7 +1551,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1541,6 +1565,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1659,7 +1684,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="777692679"/>
@@ -1718,7 +1743,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="777684999"/>
@@ -1759,7 +1784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1810,6 +1835,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1835,7 +1861,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1886,7 +1912,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="1"/>
@@ -1898,6 +1924,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2023,7 +2050,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="397849095"/>
@@ -2082,7 +2109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="397838855"/>
@@ -2123,7 +2150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2174,6 +2201,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2199,7 +2227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2278,7 +2306,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2304,7 +2332,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2363,6 +2393,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2388,7 +2419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2418,7 +2449,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2469,6 +2500,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2494,7 +2526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2545,7 +2577,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2559,6 +2591,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2690,7 +2723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="126702599"/>
@@ -2749,7 +2782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="126700551"/>
@@ -2790,7 +2823,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5764,11 +5797,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Лист1"/>
     </sheetNames>
@@ -5781,16 +5811,12 @@
           <cell r="E1" t="str">
             <v>Статус</v>
           </cell>
-          <cell r="F1" t="str">
-            <v>Баг</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
             <v>Окно программы</v>
           </cell>
           <cell r="E2"/>
-          <cell r="F2"/>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -5799,7 +5825,6 @@
           <cell r="E3" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F3"/>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -5808,7 +5833,6 @@
           <cell r="E4" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F4"/>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -5817,7 +5841,6 @@
           <cell r="E5" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F5"/>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -5826,7 +5849,6 @@
           <cell r="E6" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F6"/>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -5835,7 +5857,6 @@
           <cell r="E7" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F7"/>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -5844,7 +5865,6 @@
           <cell r="E8" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F8"/>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -5853,7 +5873,6 @@
           <cell r="E9" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F9"/>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -5862,14 +5881,12 @@
           <cell r="E10" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F10"/>
         </row>
         <row r="11">
           <cell r="A11" t="str">
             <v>Меню</v>
           </cell>
           <cell r="E11"/>
-          <cell r="F11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -5878,7 +5895,6 @@
           <cell r="E12" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F12"/>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -5887,14 +5903,12 @@
           <cell r="E13" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F13"/>
         </row>
         <row r="14">
           <cell r="A14" t="str">
             <v>Раздел построения По координатам</v>
           </cell>
           <cell r="E14"/>
-          <cell r="F14"/>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -5903,7 +5917,6 @@
           <cell r="E15" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F15"/>
         </row>
         <row r="16">
           <cell r="A16" t="str">
@@ -5912,7 +5925,6 @@
           <cell r="E16" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F16"/>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -5921,7 +5933,6 @@
           <cell r="E17" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F17"/>
         </row>
         <row r="18">
           <cell r="A18" t="str">
@@ -5930,7 +5941,6 @@
           <cell r="E18" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F18"/>
         </row>
         <row r="19">
           <cell r="A19" t="str">
@@ -5939,7 +5949,6 @@
           <cell r="E19" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F19"/>
         </row>
         <row r="20">
           <cell r="A20" t="str">
@@ -5948,7 +5957,6 @@
           <cell r="E20" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F20"/>
         </row>
         <row r="21">
           <cell r="A21" t="str">
@@ -5957,7 +5965,6 @@
           <cell r="E21" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F21"/>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -5966,7 +5973,6 @@
           <cell r="E22" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F22"/>
         </row>
         <row r="23">
           <cell r="A23" t="str">
@@ -5975,7 +5981,6 @@
           <cell r="E23" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F23"/>
         </row>
         <row r="24">
           <cell r="A24" t="str">
@@ -5984,9 +5989,6 @@
           <cell r="E24" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F24" t="str">
-            <v>bug-4</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
@@ -5995,7 +5997,6 @@
           <cell r="E25" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F25"/>
         </row>
         <row r="26">
           <cell r="A26" t="str">
@@ -6004,9 +6005,6 @@
           <cell r="E26" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F26" t="str">
-            <v>bug-5</v>
-          </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
@@ -6015,9 +6013,6 @@
           <cell r="E27" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F27" t="str">
-            <v>bug-4</v>
-          </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
@@ -6026,7 +6021,6 @@
           <cell r="E28" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F28"/>
         </row>
         <row r="29">
           <cell r="A29" t="str">
@@ -6035,7 +6029,6 @@
           <cell r="E29" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F29"/>
         </row>
         <row r="30">
           <cell r="A30" t="str">
@@ -6044,9 +6037,6 @@
           <cell r="E30" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F30" t="str">
-            <v>bug-6</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
@@ -6055,9 +6045,6 @@
           <cell r="E31" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F31" t="str">
-            <v>bug-6</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -6066,9 +6053,6 @@
           <cell r="E32" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F32" t="str">
-            <v>bug-6</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
@@ -6077,9 +6061,6 @@
           <cell r="E33" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F33" t="str">
-            <v>bug-6</v>
-          </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
@@ -6088,9 +6069,6 @@
           <cell r="E34" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F34" t="str">
-            <v>bug-7</v>
-          </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
@@ -6099,9 +6077,6 @@
           <cell r="E35" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F35" t="str">
-            <v>bug-7</v>
-          </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
@@ -6110,9 +6085,6 @@
           <cell r="E36" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F36" t="str">
-            <v>bug-7</v>
-          </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
@@ -6121,9 +6093,6 @@
           <cell r="E37" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F37" t="str">
-            <v>bug-7</v>
-          </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
@@ -6132,7 +6101,6 @@
           <cell r="E38" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F38"/>
         </row>
         <row r="39">
           <cell r="A39" t="str">
@@ -6141,7 +6109,6 @@
           <cell r="E39" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F39"/>
         </row>
         <row r="40">
           <cell r="A40" t="str">
@@ -6150,7 +6117,6 @@
           <cell r="E40" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F40"/>
         </row>
         <row r="41">
           <cell r="A41" t="str">
@@ -6159,7 +6125,6 @@
           <cell r="E41" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F41"/>
         </row>
         <row r="42">
           <cell r="A42" t="str">
@@ -6168,7 +6133,6 @@
           <cell r="E42" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F42"/>
         </row>
         <row r="43">
           <cell r="A43" t="str">
@@ -6177,7 +6141,6 @@
           <cell r="E43" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F43"/>
         </row>
         <row r="44">
           <cell r="A44" t="str">
@@ -6186,7 +6149,6 @@
           <cell r="E44" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F44"/>
         </row>
         <row r="45">
           <cell r="A45" t="str">
@@ -6195,7 +6157,6 @@
           <cell r="E45" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F45"/>
         </row>
         <row r="46">
           <cell r="A46" t="str">
@@ -6204,7 +6165,6 @@
           <cell r="E46" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F46"/>
         </row>
         <row r="47">
           <cell r="A47" t="str">
@@ -6213,7 +6173,6 @@
           <cell r="E47" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F47"/>
         </row>
         <row r="48">
           <cell r="A48" t="str">
@@ -6222,7 +6181,6 @@
           <cell r="E48" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F48"/>
         </row>
         <row r="49">
           <cell r="A49" t="str">
@@ -6231,7 +6189,6 @@
           <cell r="E49" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F49"/>
         </row>
         <row r="50">
           <cell r="A50" t="str">
@@ -6240,7 +6197,6 @@
           <cell r="E50" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F50"/>
         </row>
         <row r="51">
           <cell r="A51" t="str">
@@ -6249,7 +6205,6 @@
           <cell r="E51" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F51"/>
         </row>
         <row r="52">
           <cell r="A52" t="str">
@@ -6258,7 +6213,6 @@
           <cell r="E52" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F52"/>
         </row>
         <row r="53">
           <cell r="A53" t="str">
@@ -6267,7 +6221,6 @@
           <cell r="E53" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F53"/>
         </row>
         <row r="54">
           <cell r="A54" t="str">
@@ -6276,7 +6229,6 @@
           <cell r="E54" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F54"/>
         </row>
         <row r="55">
           <cell r="A55" t="str">
@@ -6285,7 +6237,6 @@
           <cell r="E55" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F55"/>
         </row>
         <row r="56">
           <cell r="A56" t="str">
@@ -6294,7 +6245,6 @@
           <cell r="E56" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F56"/>
         </row>
         <row r="57">
           <cell r="A57" t="str">
@@ -6303,7 +6253,6 @@
           <cell r="E57" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F57"/>
         </row>
         <row r="58">
           <cell r="A58" t="str">
@@ -6312,7 +6261,6 @@
           <cell r="E58" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F58"/>
         </row>
         <row r="59">
           <cell r="A59" t="str">
@@ -6321,7 +6269,6 @@
           <cell r="E59" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F59"/>
         </row>
         <row r="60">
           <cell r="A60" t="str">
@@ -6330,7 +6277,6 @@
           <cell r="E60" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F60"/>
         </row>
         <row r="61">
           <cell r="A61" t="str">
@@ -6339,7 +6285,6 @@
           <cell r="E61" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F61"/>
         </row>
         <row r="62">
           <cell r="A62" t="str">
@@ -6348,7 +6293,6 @@
           <cell r="E62" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F62"/>
         </row>
         <row r="63">
           <cell r="A63" t="str">
@@ -6357,7 +6301,6 @@
           <cell r="E63" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F63"/>
         </row>
         <row r="64">
           <cell r="A64" t="str">
@@ -6366,7 +6309,6 @@
           <cell r="E64" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F64"/>
         </row>
         <row r="65">
           <cell r="A65" t="str">
@@ -6375,7 +6317,6 @@
           <cell r="E65" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F65"/>
         </row>
         <row r="66">
           <cell r="A66" t="str">
@@ -6384,7 +6325,6 @@
           <cell r="E66" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F66"/>
         </row>
         <row r="67">
           <cell r="A67" t="str">
@@ -6393,7 +6333,6 @@
           <cell r="E67" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F67"/>
         </row>
         <row r="68">
           <cell r="A68" t="str">
@@ -6402,7 +6341,6 @@
           <cell r="E68" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F68"/>
         </row>
         <row r="69">
           <cell r="A69" t="str">
@@ -6411,7 +6349,6 @@
           <cell r="E69" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F69"/>
         </row>
         <row r="70">
           <cell r="A70" t="str">
@@ -6420,7 +6357,6 @@
           <cell r="E70" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F70"/>
         </row>
         <row r="71">
           <cell r="A71" t="str">
@@ -6429,7 +6365,6 @@
           <cell r="E71" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F71"/>
         </row>
         <row r="72">
           <cell r="A72" t="str">
@@ -6438,7 +6373,6 @@
           <cell r="E72" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F72"/>
         </row>
         <row r="73">
           <cell r="A73" t="str">
@@ -6447,7 +6381,6 @@
           <cell r="E73" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F73"/>
         </row>
         <row r="74">
           <cell r="A74" t="str">
@@ -6456,7 +6389,6 @@
           <cell r="E74" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F74"/>
         </row>
         <row r="75">
           <cell r="A75" t="str">
@@ -6465,7 +6397,6 @@
           <cell r="E75" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F75"/>
         </row>
         <row r="76">
           <cell r="A76" t="str">
@@ -6474,7 +6405,6 @@
           <cell r="E76" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F76"/>
         </row>
         <row r="77">
           <cell r="A77" t="str">
@@ -6483,7 +6413,6 @@
           <cell r="E77" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F77"/>
         </row>
         <row r="78">
           <cell r="A78" t="str">
@@ -6492,7 +6421,6 @@
           <cell r="E78" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F78"/>
         </row>
         <row r="79">
           <cell r="A79" t="str">
@@ -6501,7 +6429,6 @@
           <cell r="E79" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F79"/>
         </row>
         <row r="80">
           <cell r="A80" t="str">
@@ -6510,7 +6437,6 @@
           <cell r="E80" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F80"/>
         </row>
         <row r="81">
           <cell r="A81" t="str">
@@ -6519,7 +6445,6 @@
           <cell r="E81" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F81"/>
         </row>
         <row r="82">
           <cell r="A82" t="str">
@@ -6528,7 +6453,6 @@
           <cell r="E82" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F82"/>
         </row>
         <row r="83">
           <cell r="A83" t="str">
@@ -6537,7 +6461,6 @@
           <cell r="E83" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F83"/>
         </row>
         <row r="84">
           <cell r="A84" t="str">
@@ -6546,7 +6469,6 @@
           <cell r="E84" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F84"/>
         </row>
         <row r="85">
           <cell r="A85" t="str">
@@ -6555,7 +6477,6 @@
           <cell r="E85" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F85"/>
         </row>
         <row r="86">
           <cell r="A86" t="str">
@@ -6564,9 +6485,6 @@
           <cell r="E86" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F86" t="str">
-            <v>bug-1</v>
-          </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
@@ -6575,7 +6493,6 @@
           <cell r="E87" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F87"/>
         </row>
         <row r="88">
           <cell r="A88" t="str">
@@ -6584,14 +6501,12 @@
           <cell r="E88" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F88"/>
         </row>
         <row r="89">
           <cell r="A89" t="str">
             <v>Раздел построения По сторонам</v>
           </cell>
           <cell r="E89"/>
-          <cell r="F89"/>
         </row>
         <row r="90">
           <cell r="A90" t="str">
@@ -6600,7 +6515,6 @@
           <cell r="E90" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F90"/>
         </row>
         <row r="91">
           <cell r="A91" t="str">
@@ -6609,7 +6523,6 @@
           <cell r="E91" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F91"/>
         </row>
         <row r="92">
           <cell r="A92" t="str">
@@ -6618,7 +6531,6 @@
           <cell r="E92" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F92"/>
         </row>
         <row r="93">
           <cell r="A93" t="str">
@@ -6627,7 +6539,6 @@
           <cell r="E93" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F93"/>
         </row>
         <row r="94">
           <cell r="A94" t="str">
@@ -6636,7 +6547,6 @@
           <cell r="E94" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F94"/>
         </row>
         <row r="95">
           <cell r="A95" t="str">
@@ -6645,7 +6555,6 @@
           <cell r="E95" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F95"/>
         </row>
         <row r="96">
           <cell r="A96" t="str">
@@ -6654,7 +6563,6 @@
           <cell r="E96" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F96"/>
         </row>
         <row r="97">
           <cell r="A97" t="str">
@@ -6663,7 +6571,6 @@
           <cell r="E97" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F97"/>
         </row>
         <row r="98">
           <cell r="A98" t="str">
@@ -6672,7 +6579,6 @@
           <cell r="E98" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F98"/>
         </row>
         <row r="99">
           <cell r="A99" t="str">
@@ -6681,7 +6587,6 @@
           <cell r="E99" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F99"/>
         </row>
         <row r="100">
           <cell r="A100" t="str">
@@ -6690,7 +6595,6 @@
           <cell r="E100" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F100"/>
         </row>
         <row r="101">
           <cell r="A101" t="str">
@@ -6699,7 +6603,6 @@
           <cell r="E101" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F101"/>
         </row>
         <row r="102">
           <cell r="A102" t="str">
@@ -6708,7 +6611,6 @@
           <cell r="E102" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F102"/>
         </row>
         <row r="103">
           <cell r="A103" t="str">
@@ -6717,9 +6619,6 @@
           <cell r="E103" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F103" t="str">
-            <v>bug-10</v>
-          </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
@@ -6728,7 +6627,6 @@
           <cell r="E104" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F104"/>
         </row>
         <row r="105">
           <cell r="A105" t="str">
@@ -6737,7 +6635,6 @@
           <cell r="E105" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F105"/>
         </row>
         <row r="106">
           <cell r="A106" t="str">
@@ -6746,9 +6643,6 @@
           <cell r="E106" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F106" t="str">
-            <v>bug-8</v>
-          </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
@@ -6757,9 +6651,6 @@
           <cell r="E107" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F107" t="str">
-            <v>bug-8</v>
-          </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
@@ -6768,9 +6659,6 @@
           <cell r="E108" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F108" t="str">
-            <v>bug-8</v>
-          </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
@@ -6779,9 +6667,6 @@
           <cell r="E109" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F109" t="str">
-            <v>bug-8</v>
-          </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
@@ -6790,9 +6675,6 @@
           <cell r="E110" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F110" t="str">
-            <v>bug-9</v>
-          </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
@@ -6801,9 +6683,6 @@
           <cell r="E111" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F111" t="str">
-            <v>bug-9</v>
-          </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
@@ -6812,9 +6691,6 @@
           <cell r="E112" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F112" t="str">
-            <v>bug-9</v>
-          </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
@@ -6823,9 +6699,6 @@
           <cell r="E113" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F113" t="str">
-            <v>bug-9</v>
-          </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
@@ -6834,7 +6707,6 @@
           <cell r="E114" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F114"/>
         </row>
         <row r="115">
           <cell r="A115" t="str">
@@ -6843,7 +6715,6 @@
           <cell r="E115" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F115"/>
         </row>
         <row r="116">
           <cell r="A116" t="str">
@@ -6852,7 +6723,6 @@
           <cell r="E116" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F116"/>
         </row>
         <row r="117">
           <cell r="A117" t="str">
@@ -6861,7 +6731,6 @@
           <cell r="E117" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F117"/>
         </row>
         <row r="118">
           <cell r="A118" t="str">
@@ -6870,7 +6739,6 @@
           <cell r="E118" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F118"/>
         </row>
         <row r="119">
           <cell r="A119" t="str">
@@ -6879,7 +6747,6 @@
           <cell r="E119" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F119"/>
         </row>
         <row r="120">
           <cell r="A120" t="str">
@@ -6888,7 +6755,6 @@
           <cell r="E120" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F120"/>
         </row>
         <row r="121">
           <cell r="A121" t="str">
@@ -6897,7 +6763,6 @@
           <cell r="E121" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F121"/>
         </row>
         <row r="122">
           <cell r="A122" t="str">
@@ -6906,7 +6771,6 @@
           <cell r="E122" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F122"/>
         </row>
         <row r="123">
           <cell r="A123" t="str">
@@ -6915,7 +6779,6 @@
           <cell r="E123" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F123"/>
         </row>
         <row r="124">
           <cell r="A124" t="str">
@@ -6924,7 +6787,6 @@
           <cell r="E124" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F124"/>
         </row>
         <row r="125">
           <cell r="A125" t="str">
@@ -6933,7 +6795,6 @@
           <cell r="E125" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F125"/>
         </row>
         <row r="126">
           <cell r="A126" t="str">
@@ -6942,7 +6803,6 @@
           <cell r="E126" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F126"/>
         </row>
         <row r="127">
           <cell r="A127" t="str">
@@ -6951,7 +6811,6 @@
           <cell r="E127" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F127"/>
         </row>
         <row r="128">
           <cell r="A128" t="str">
@@ -6960,7 +6819,6 @@
           <cell r="E128" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F128"/>
         </row>
         <row r="129">
           <cell r="A129" t="str">
@@ -6969,7 +6827,6 @@
           <cell r="E129" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F129"/>
         </row>
         <row r="130">
           <cell r="A130" t="str">
@@ -6978,7 +6835,6 @@
           <cell r="E130" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F130"/>
         </row>
         <row r="131">
           <cell r="A131" t="str">
@@ -6987,7 +6843,6 @@
           <cell r="E131" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F131"/>
         </row>
         <row r="132">
           <cell r="A132" t="str">
@@ -6996,7 +6851,6 @@
           <cell r="E132" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F132"/>
         </row>
         <row r="133">
           <cell r="A133" t="str">
@@ -7005,7 +6859,6 @@
           <cell r="E133" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F133"/>
         </row>
         <row r="134">
           <cell r="A134" t="str">
@@ -7014,7 +6867,6 @@
           <cell r="E134" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F134"/>
         </row>
         <row r="135">
           <cell r="A135" t="str">
@@ -7023,7 +6875,6 @@
           <cell r="E135" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F135"/>
         </row>
         <row r="136">
           <cell r="A136" t="str">
@@ -7032,7 +6883,6 @@
           <cell r="E136" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F136"/>
         </row>
         <row r="137">
           <cell r="A137" t="str">
@@ -7041,7 +6891,6 @@
           <cell r="E137" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F137"/>
         </row>
         <row r="138">
           <cell r="A138" t="str">
@@ -7050,7 +6899,6 @@
           <cell r="E138" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F138"/>
         </row>
         <row r="139">
           <cell r="A139" t="str">
@@ -7059,7 +6907,6 @@
           <cell r="E139" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F139"/>
         </row>
         <row r="140">
           <cell r="A140" t="str">
@@ -7068,7 +6915,6 @@
           <cell r="E140" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F140"/>
         </row>
         <row r="141">
           <cell r="A141" t="str">
@@ -7077,7 +6923,6 @@
           <cell r="E141" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F141"/>
         </row>
         <row r="142">
           <cell r="A142" t="str">
@@ -7086,7 +6931,6 @@
           <cell r="E142" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F142"/>
         </row>
         <row r="143">
           <cell r="A143" t="str">
@@ -7095,7 +6939,6 @@
           <cell r="E143" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F143"/>
         </row>
         <row r="144">
           <cell r="A144" t="str">
@@ -7104,7 +6947,6 @@
           <cell r="E144" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F144"/>
         </row>
         <row r="145">
           <cell r="A145" t="str">
@@ -7113,7 +6955,6 @@
           <cell r="E145" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F145"/>
         </row>
         <row r="146">
           <cell r="A146" t="str">
@@ -7122,7 +6963,6 @@
           <cell r="E146" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F146"/>
         </row>
         <row r="147">
           <cell r="A147" t="str">
@@ -7131,7 +6971,6 @@
           <cell r="E147" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F147"/>
         </row>
         <row r="148">
           <cell r="A148" t="str">
@@ -7140,7 +6979,6 @@
           <cell r="E148" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F148"/>
         </row>
         <row r="149">
           <cell r="A149" t="str">
@@ -7149,7 +6987,6 @@
           <cell r="E149" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F149"/>
         </row>
         <row r="150">
           <cell r="A150" t="str">
@@ -7158,7 +6995,6 @@
           <cell r="E150" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F150"/>
         </row>
         <row r="151">
           <cell r="A151" t="str">
@@ -7167,7 +7003,6 @@
           <cell r="E151" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F151"/>
         </row>
         <row r="152">
           <cell r="A152" t="str">
@@ -7176,7 +7011,6 @@
           <cell r="E152" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F152"/>
         </row>
         <row r="153">
           <cell r="A153" t="str">
@@ -7185,7 +7019,6 @@
           <cell r="E153" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F153"/>
         </row>
         <row r="154">
           <cell r="A154" t="str">
@@ -7194,7 +7027,6 @@
           <cell r="E154" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F154"/>
         </row>
         <row r="155">
           <cell r="A155" t="str">
@@ -7203,7 +7035,6 @@
           <cell r="E155" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F155"/>
         </row>
         <row r="156">
           <cell r="A156" t="str">
@@ -7212,7 +7043,6 @@
           <cell r="E156" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F156"/>
         </row>
         <row r="157">
           <cell r="A157" t="str">
@@ -7221,16 +7051,12 @@
           <cell r="E157" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F157" t="str">
-            <v>bug-2</v>
-          </cell>
         </row>
         <row r="158">
           <cell r="A158" t="str">
             <v>Раздел построения По углу и сторонам</v>
           </cell>
           <cell r="E158"/>
-          <cell r="F158"/>
         </row>
         <row r="159">
           <cell r="A159" t="str">
@@ -7239,7 +7065,6 @@
           <cell r="E159" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F159"/>
         </row>
         <row r="160">
           <cell r="A160" t="str">
@@ -7248,7 +7073,6 @@
           <cell r="E160" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F160"/>
         </row>
         <row r="161">
           <cell r="A161" t="str">
@@ -7257,7 +7081,6 @@
           <cell r="E161" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F161"/>
         </row>
         <row r="162">
           <cell r="A162" t="str">
@@ -7266,7 +7089,6 @@
           <cell r="E162" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F162"/>
         </row>
         <row r="163">
           <cell r="A163" t="str">
@@ -7275,7 +7097,6 @@
           <cell r="E163" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F163"/>
         </row>
         <row r="164">
           <cell r="A164" t="str">
@@ -7284,7 +7105,6 @@
           <cell r="E164" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F164"/>
         </row>
         <row r="165">
           <cell r="A165" t="str">
@@ -7293,7 +7113,6 @@
           <cell r="E165" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F165"/>
         </row>
         <row r="166">
           <cell r="A166" t="str">
@@ -7302,7 +7121,6 @@
           <cell r="E166" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F166"/>
         </row>
         <row r="167">
           <cell r="A167" t="str">
@@ -7311,7 +7129,6 @@
           <cell r="E167" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F167"/>
         </row>
         <row r="168">
           <cell r="A168" t="str">
@@ -7320,7 +7137,6 @@
           <cell r="E168" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F168"/>
         </row>
         <row r="169">
           <cell r="A169" t="str">
@@ -7329,7 +7145,6 @@
           <cell r="E169" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F169"/>
         </row>
         <row r="170">
           <cell r="A170" t="str">
@@ -7338,7 +7153,6 @@
           <cell r="E170" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F170"/>
         </row>
         <row r="171">
           <cell r="A171" t="str">
@@ -7347,7 +7161,6 @@
           <cell r="E171" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F171"/>
         </row>
         <row r="172">
           <cell r="A172" t="str">
@@ -7356,7 +7169,6 @@
           <cell r="E172" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F172"/>
         </row>
         <row r="173">
           <cell r="A173" t="str">
@@ -7365,7 +7177,6 @@
           <cell r="E173" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F173"/>
         </row>
         <row r="174">
           <cell r="A174" t="str">
@@ -7374,7 +7185,6 @@
           <cell r="E174" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F174"/>
         </row>
         <row r="175">
           <cell r="A175" t="str">
@@ -7383,7 +7193,6 @@
           <cell r="E175" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F175"/>
         </row>
         <row r="176">
           <cell r="A176" t="str">
@@ -7392,7 +7201,6 @@
           <cell r="E176" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F176"/>
         </row>
         <row r="177">
           <cell r="A177" t="str">
@@ -7401,9 +7209,6 @@
           <cell r="E177" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F177" t="str">
-            <v>bug-10</v>
-          </cell>
         </row>
         <row r="178">
           <cell r="A178" t="str">
@@ -7412,9 +7217,6 @@
           <cell r="E178" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F178" t="str">
-            <v>bug-10</v>
-          </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
@@ -7423,9 +7225,6 @@
           <cell r="E179" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F179" t="str">
-            <v>bug-10</v>
-          </cell>
         </row>
         <row r="180">
           <cell r="A180" t="str">
@@ -7434,9 +7233,6 @@
           <cell r="E180" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F180" t="str">
-            <v>bug-10</v>
-          </cell>
         </row>
         <row r="181">
           <cell r="A181" t="str">
@@ -7445,9 +7241,6 @@
           <cell r="E181" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F181" t="str">
-            <v>bug-11</v>
-          </cell>
         </row>
         <row r="182">
           <cell r="A182" t="str">
@@ -7456,9 +7249,6 @@
           <cell r="E182" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F182" t="str">
-            <v>bug-11</v>
-          </cell>
         </row>
         <row r="183">
           <cell r="A183" t="str">
@@ -7467,9 +7257,6 @@
           <cell r="E183" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F183" t="str">
-            <v>bug-11</v>
-          </cell>
         </row>
         <row r="184">
           <cell r="A184" t="str">
@@ -7478,9 +7265,6 @@
           <cell r="E184" t="str">
             <v>Fail</v>
           </cell>
-          <cell r="F184" t="str">
-            <v>bug-11</v>
-          </cell>
         </row>
         <row r="185">
           <cell r="A185" t="str">
@@ -7489,7 +7273,6 @@
           <cell r="E185" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F185"/>
         </row>
         <row r="186">
           <cell r="A186" t="str">
@@ -7498,7 +7281,6 @@
           <cell r="E186" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F186"/>
         </row>
         <row r="187">
           <cell r="A187" t="str">
@@ -7507,7 +7289,6 @@
           <cell r="E187" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F187"/>
         </row>
         <row r="188">
           <cell r="A188" t="str">
@@ -7516,7 +7297,6 @@
           <cell r="E188" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F188"/>
         </row>
         <row r="189">
           <cell r="A189" t="str">
@@ -7525,7 +7305,6 @@
           <cell r="E189" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F189"/>
         </row>
         <row r="190">
           <cell r="A190" t="str">
@@ -7534,7 +7313,6 @@
           <cell r="E190" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F190"/>
         </row>
         <row r="191">
           <cell r="A191" t="str">
@@ -7543,7 +7321,6 @@
           <cell r="E191" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F191"/>
         </row>
         <row r="192">
           <cell r="A192" t="str">
@@ -7552,7 +7329,6 @@
           <cell r="E192" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F192"/>
         </row>
         <row r="193">
           <cell r="A193" t="str">
@@ -7561,7 +7337,6 @@
           <cell r="E193" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F193"/>
         </row>
         <row r="194">
           <cell r="A194" t="str">
@@ -7570,7 +7345,6 @@
           <cell r="E194" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F194"/>
         </row>
         <row r="195">
           <cell r="A195" t="str">
@@ -7579,7 +7353,6 @@
           <cell r="E195" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F195"/>
         </row>
         <row r="196">
           <cell r="A196" t="str">
@@ -7588,7 +7361,6 @@
           <cell r="E196" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F196"/>
         </row>
         <row r="197">
           <cell r="A197" t="str">
@@ -7597,7 +7369,6 @@
           <cell r="E197" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F197"/>
         </row>
         <row r="198">
           <cell r="A198" t="str">
@@ -7606,7 +7377,6 @@
           <cell r="E198" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F198"/>
         </row>
         <row r="199">
           <cell r="A199" t="str">
@@ -7615,7 +7385,6 @@
           <cell r="E199" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F199"/>
         </row>
         <row r="200">
           <cell r="A200" t="str">
@@ -7624,7 +7393,6 @@
           <cell r="E200" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F200"/>
         </row>
         <row r="201">
           <cell r="A201" t="str">
@@ -7633,7 +7401,6 @@
           <cell r="E201" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F201"/>
         </row>
         <row r="202">
           <cell r="A202" t="str">
@@ -7642,7 +7409,6 @@
           <cell r="E202" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F202"/>
         </row>
         <row r="203">
           <cell r="A203" t="str">
@@ -7651,7 +7417,6 @@
           <cell r="E203" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F203"/>
         </row>
         <row r="204">
           <cell r="A204" t="str">
@@ -7660,7 +7425,6 @@
           <cell r="E204" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F204"/>
         </row>
         <row r="205">
           <cell r="A205" t="str">
@@ -7669,7 +7433,6 @@
           <cell r="E205" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F205"/>
         </row>
         <row r="206">
           <cell r="A206" t="str">
@@ -7678,7 +7441,6 @@
           <cell r="E206" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F206"/>
         </row>
         <row r="207">
           <cell r="A207" t="str">
@@ -7687,7 +7449,6 @@
           <cell r="E207" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F207"/>
         </row>
         <row r="208">
           <cell r="A208" t="str">
@@ -7696,7 +7457,6 @@
           <cell r="E208" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F208"/>
         </row>
         <row r="209">
           <cell r="A209" t="str">
@@ -7705,7 +7465,6 @@
           <cell r="E209" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F209"/>
         </row>
         <row r="210">
           <cell r="A210" t="str">
@@ -7714,7 +7473,6 @@
           <cell r="E210" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F210"/>
         </row>
         <row r="211">
           <cell r="A211" t="str">
@@ -7723,7 +7481,6 @@
           <cell r="E211" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F211"/>
         </row>
         <row r="212">
           <cell r="A212" t="str">
@@ -7732,7 +7489,6 @@
           <cell r="E212" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F212"/>
         </row>
         <row r="213">
           <cell r="A213" t="str">
@@ -7741,7 +7497,6 @@
           <cell r="E213" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F213"/>
         </row>
         <row r="214">
           <cell r="A214" t="str">
@@ -7750,7 +7505,6 @@
           <cell r="E214" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F214"/>
         </row>
         <row r="215">
           <cell r="A215" t="str">
@@ -7759,7 +7513,6 @@
           <cell r="E215" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F215"/>
         </row>
         <row r="216">
           <cell r="A216" t="str">
@@ -7768,7 +7521,6 @@
           <cell r="E216" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F216"/>
         </row>
         <row r="217">
           <cell r="A217" t="str">
@@ -7777,7 +7529,6 @@
           <cell r="E217" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F217"/>
         </row>
         <row r="218">
           <cell r="A218" t="str">
@@ -7786,7 +7537,6 @@
           <cell r="E218" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F218"/>
         </row>
         <row r="219">
           <cell r="A219" t="str">
@@ -7795,7 +7545,6 @@
           <cell r="E219" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F219"/>
         </row>
         <row r="220">
           <cell r="A220" t="str">
@@ -7804,7 +7553,6 @@
           <cell r="E220" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F220"/>
         </row>
         <row r="221">
           <cell r="A221" t="str">
@@ -7813,7 +7561,6 @@
           <cell r="E221" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F221"/>
         </row>
         <row r="222">
           <cell r="A222" t="str">
@@ -7822,7 +7569,6 @@
           <cell r="E222" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F222"/>
         </row>
         <row r="223">
           <cell r="A223" t="str">
@@ -7831,7 +7577,6 @@
           <cell r="E223" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F223"/>
         </row>
         <row r="224">
           <cell r="A224" t="str">
@@ -7840,7 +7585,6 @@
           <cell r="E224" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F224"/>
         </row>
         <row r="225">
           <cell r="A225" t="str">
@@ -7849,7 +7593,6 @@
           <cell r="E225" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F225"/>
         </row>
         <row r="226">
           <cell r="A226" t="str">
@@ -7858,7 +7601,6 @@
           <cell r="E226" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F226"/>
         </row>
         <row r="227">
           <cell r="A227" t="str">
@@ -7867,7 +7609,6 @@
           <cell r="E227" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F227"/>
         </row>
         <row r="228">
           <cell r="A228" t="str">
@@ -7876,7 +7617,6 @@
           <cell r="E228" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F228"/>
         </row>
         <row r="229">
           <cell r="A229" t="str">
@@ -7885,7 +7625,6 @@
           <cell r="E229" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F229"/>
         </row>
         <row r="230">
           <cell r="A230" t="str">
@@ -7894,7 +7633,6 @@
           <cell r="E230" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F230"/>
         </row>
         <row r="231">
           <cell r="A231" t="str">
@@ -7903,7 +7641,6 @@
           <cell r="E231" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F231"/>
         </row>
         <row r="232">
           <cell r="A232" t="str">
@@ -7912,7 +7649,6 @@
           <cell r="E232" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F232"/>
         </row>
         <row r="233">
           <cell r="A233" t="str">
@@ -7921,7 +7657,6 @@
           <cell r="E233" t="str">
             <v>Pass</v>
           </cell>
-          <cell r="F233"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -7930,11 +7665,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Лист1"/>
     </sheetNames>
@@ -8255,22 +7987,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BF4C6E4-AB35-4B4D-BD94-A1EE065FB65F}" name="Table3" displayName="Table3" ref="A33:B38" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
-  <autoFilter ref="A33:B38" xr:uid="{6BF4C6E4-AB35-4B4D-BD94-A1EE065FB65F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A33:B38" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A33:B38"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{124F2190-F03B-4788-9F11-14252EB2FBE1}" name="Серьёзность дефекта" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9FF512A4-AAB3-4F1A-801C-7973058C3D94}" name="Количество дефектов" dataDxfId="7"/>
+    <tableColumn id="1" name="Серьёзность дефекта" dataDxfId="8"/>
+    <tableColumn id="2" name="Количество дефектов" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2E929079-348C-4706-926F-57D7C11F9641}" name="Table4" displayName="Table4" ref="A41:B45" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
-  <autoFilter ref="A41:B45" xr:uid="{2E929079-348C-4706-926F-57D7C11F9641}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A41:B45" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A41:B45"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A60000F1-F342-436C-BF3A-14D5D595C247}" name="Приоритет дефекта" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E6ACCC50-2783-4F40-A42D-95C2BAE6FCA2}" name="Количество дефектов" dataDxfId="0">
+    <tableColumn id="1" name="Приоритет дефекта" dataDxfId="1"/>
+    <tableColumn id="2" name="Количество дефектов" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(#REF!, "High")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8540,14 +8272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="85" customWidth="1"/>
@@ -8557,132 +8289,132 @@
     <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="1:5" ht="23.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="11" cm="1">
@@ -8691,17 +8423,17 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="14" cm="1">
+      <c r="B14" s="13" cm="1">
         <f t="array" ref="B14">SUMPRODUCT(IF(IFERROR(FIND("Pass", [1]Лист1!$E:$E), 0) &gt; 0, 1, 0))</f>
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="12" cm="1">
@@ -8709,82 +8441,82 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="69.75" customHeight="1">
-      <c r="A16" s="31" t="str">
+    <row r="16" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="str">
         <f xml:space="preserve"> "Из " &amp; B13 &amp; " тестов " &amp; B14 &amp; " были успешными, что свидетельствует о коррекной работе большей части функциональности"</f>
         <v>Из 227 тестов 197 были успешными, что свидетельствует о коррекной работе большей части функциональности</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="26"/>
     </row>
-    <row r="17" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="53.25" customHeight="1">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="53.25" customHeight="1">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="53.25" customHeight="1">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="53.25" customHeight="1">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <f>B18</f>
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="53.25" customHeight="1">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A24" s="29" t="str">
+    <row r="24" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="str">
         <f>"Для данного проекта требования написаны неудовлетворительно, все требования были переписаны, перенесены, уточнены или удалены."</f>
         <v>Для данного проекта требования написаны неудовлетворительно, все требования были переписаны, перенесены, уточнены или удалены.</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="33"/>
     </row>
-    <row r="25" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="30"/>
     </row>
-    <row r="26" spans="1:3" ht="53.25" customHeight="1">
+    <row r="26" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -8794,7 +8526,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="53.25" customHeight="1">
+    <row r="27" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -8804,7 +8536,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="53.25" customHeight="1">
+    <row r="28" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>33</v>
       </c>
@@ -8814,7 +8546,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="53.25" customHeight="1">
+    <row r="29" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>34</v>
       </c>
@@ -8824,7 +8556,7 @@
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="53.25" customHeight="1">
+    <row r="30" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
@@ -8834,21 +8566,21 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="53.25" customHeight="1">
+    <row r="33" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>38</v>
       </c>
@@ -8857,7 +8589,7 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="53.25" customHeight="1">
+    <row r="34" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
@@ -8867,7 +8599,7 @@
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="53.25" customHeight="1">
+    <row r="35" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>41</v>
       </c>
@@ -8877,7 +8609,7 @@
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="53.25" customHeight="1">
+    <row r="36" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>42</v>
       </c>
@@ -8887,7 +8619,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="53.25" customHeight="1">
+    <row r="37" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>43</v>
       </c>
@@ -8897,7 +8629,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="53.25" customHeight="1">
+    <row r="38" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>44</v>
       </c>
@@ -8907,20 +8639,20 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="69.75" customHeight="1">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="28"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="26"/>
+      <c r="B40" s="30"/>
     </row>
-    <row r="41" spans="1:5" ht="53.25" customHeight="1">
+    <row r="41" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -8928,7 +8660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="53.25" customHeight="1">
+    <row r="42" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>48</v>
       </c>
@@ -8937,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="53.25" customHeight="1">
+    <row r="43" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
@@ -8946,7 +8678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="53.25" customHeight="1">
+    <row r="44" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>50</v>
       </c>
@@ -8955,7 +8687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="53.25" customHeight="1">
+    <row r="45" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>51</v>
       </c>
@@ -8964,152 +8696,153 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="69.75" customHeight="1">
-      <c r="A46" s="29" t="s">
+    <row r="46" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="33"/>
     </row>
-    <row r="47" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A47" s="26" t="s">
+    <row r="47" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
     </row>
-    <row r="50" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A50" s="24" t="s">
+    <row r="50" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
-    <row r="51" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A51" s="32" t="s">
+    <row r="51" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
-    <row r="53" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A53" s="34" t="s">
+    <row r="53" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
+      <c r="B55" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
     </row>
-    <row r="55" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A55" s="11" t="s">
+    <row r="56" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B56" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="B57" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
     </row>
-    <row r="56" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A56" s="12" t="s">
+    <row r="58" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B58" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-    </row>
-    <row r="57" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A57" s="12" t="s">
+      <c r="B59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A58" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-    </row>
-    <row r="59" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A59" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A47:E47"/>
@@ -9125,31 +8858,29 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B55:E55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B56" r:id="rId1" xr:uid="{6B68827E-B629-438E-B93F-995CCE71BB79}"/>
-    <hyperlink ref="B57:E57" r:id="rId2" display="https://1drv.ms/x/c/ac77fd8478382e05/ERiGfPF-b4tDiAPl7Ne8hfoBwzqUr6YIAuCH5cspyFMnRw?e=AgPHwi" xr:uid="{CD93DFEC-0663-411F-98FC-19051111F187}"/>
-    <hyperlink ref="B58:E58" r:id="rId3" display="https://1drv.ms/x/c/ac77fd8478382e05/EaN8BDrxrBVEjTKcPKzdjt8BdKzCCWUK9MZLKULTuXoasw?e=kfsKO6" xr:uid="{63AEACDF-50D8-4F3A-B485-7775DF13F726}"/>
-    <hyperlink ref="B54:E54" r:id="rId4" display="https://1drv.ms/w/c/ac77fd8478382e05/ETD_npj2lg9KjLMdjNZ1XcsBZyTNUmcIOiIzKl_dQnHTIg?e=uwhDv1" xr:uid="{3BC26653-C9C3-4852-B33B-D57106F5F25F}"/>
-    <hyperlink ref="B55" r:id="rId5" xr:uid="{E933975F-7461-42F1-A552-1FE0FCCD032F}"/>
-    <hyperlink ref="B56:E56" r:id="rId6" display="https://1drv.ms/x/c/ac77fd8478382e05/EVRAlfYlgwtHuXxJs5pQ7aoBfJQNcFP3dDQ2LkGVb8ZtwA?e=5Xfhkm" xr:uid="{B1EB0954-1C94-4246-9FA7-FDFF5DEB5B61}"/>
-    <hyperlink ref="B55:E55" r:id="rId7" display="https://1drv.ms/w/c/ac77fd8478382e05/ERElmIAjpJ5BognyEmTGQhoBwFGgoB4K_Z3i-f6sRMJBTQ?e=pzhEw6" xr:uid="{CED8B637-5C7B-4CA9-92F0-5FD1CAD3978E}"/>
+    <hyperlink ref="B54:E54" r:id="rId1" display="Ошибки в требованиях"/>
+    <hyperlink ref="B55:E55" r:id="rId2" display="Требования"/>
+    <hyperlink ref="B56:E56" r:id="rId3" display="Чек-лист"/>
+    <hyperlink ref="B57:E57" r:id="rId4" display="Тесты"/>
+    <hyperlink ref="B58:E58" r:id="rId5" display="Баг-репорты"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
   <tableParts count="2">
+    <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>